--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="171">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -65,12 +65,39 @@
     <t xml:space="preserve">KKP</t>
   </si>
   <si>
+    <t xml:space="preserve">Cichosz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grażyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o rolnictwie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr hab. inż.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czech</t>
   </si>
   <si>
     <t xml:space="preserve">Marta</t>
   </si>
   <si>
+    <t xml:space="preserve">Domańska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr inż.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domański</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogusław</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dorosiński</t>
   </si>
   <si>
@@ -80,6 +107,30 @@
     <t xml:space="preserve">panelista KINGS o wolności słowa</t>
   </si>
   <si>
+    <t xml:space="preserve">Dziuban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o armii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijał</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szymon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por. rezerwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foryś</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prowadził Panel KINGS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fritz</t>
   </si>
   <si>
@@ -113,9 +164,6 @@
     <t xml:space="preserve">Ryszard</t>
   </si>
   <si>
-    <t xml:space="preserve">prowadził Panel KINGS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gwiazdowski</t>
   </si>
   <si>
@@ -131,6 +179,15 @@
     <t xml:space="preserve">Ireneusz</t>
   </si>
   <si>
+    <t xml:space="preserve">Jakiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomasz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolnik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Janowski</t>
   </si>
   <si>
@@ -176,6 +233,9 @@
     <t xml:space="preserve">poseł</t>
   </si>
   <si>
+    <t xml:space="preserve">Krysiak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kulińska</t>
   </si>
   <si>
@@ -197,24 +257,45 @@
     <t xml:space="preserve">prokurator, adwokat</t>
   </si>
   <si>
+    <t xml:space="preserve">Majkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrzej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wspaniały lekarz Wołomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malczewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarosław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prezes grupy mleczarskiej</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michalkiewicz</t>
   </si>
   <si>
     <t xml:space="preserve">Stanisław</t>
   </si>
   <si>
+    <t xml:space="preserve">Perzyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maciej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weterynarz, działający z rolnikami</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piekielnik</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomasz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pospieszalski</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rola</t>
   </si>
   <si>
@@ -224,6 +305,12 @@
     <t xml:space="preserve">zał.wRealu24</t>
   </si>
   <si>
+    <t xml:space="preserve">Samol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schab</t>
   </si>
   <si>
@@ -281,6 +368,21 @@
     <t xml:space="preserve">Szymowski</t>
   </si>
   <si>
+    <t xml:space="preserve">Treywasz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopolityk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Krzysztof Zagroda”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbańczyk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wielomski</t>
   </si>
   <si>
@@ -392,9 +494,6 @@
     <t xml:space="preserve">Nowak</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrzej</t>
-  </si>
-  <si>
     <t xml:space="preserve">hisotryk, autor</t>
   </si>
   <si>
@@ -426,9 +525,6 @@
   </si>
   <si>
     <t xml:space="preserve">Urbanowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maciej</t>
   </si>
   <si>
     <t xml:space="preserve">Warzecha</t>
@@ -515,7 +611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +621,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,10 +751,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,43 +823,49 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +875,7 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -783,6 +889,9 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -792,9 +901,9 @@
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -803,11 +912,12 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -817,10 +927,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,331 +938,515 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1182,300 +1473,300 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>164</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pomoc" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="przeszkoda" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="pomoc" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="przeszkoda" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -71,24 +71,30 @@
     <t xml:space="preserve">Grażyna</t>
   </si>
   <si>
+    <t xml:space="preserve">zaproszona do KINGS o rolnictwie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postawiła się farmaceutom na szerszą skalę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr hab. inż.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domańska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolanta</t>
+  </si>
+  <si>
     <t xml:space="preserve">panelista KINGS o rolnictwie</t>
   </si>
   <si>
-    <t xml:space="preserve">prof. dr hab. inż.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domańska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jolanta</t>
-  </si>
-  <si>
     <t xml:space="preserve">dr inż.</t>
   </si>
   <si>
@@ -107,6 +113,18 @@
     <t xml:space="preserve">panelista KINGS o wolności słowa</t>
   </si>
   <si>
+    <t xml:space="preserve">Dzierżawski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariusz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o demografii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polityk UPR walczący z aborcją i pornografią</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dziuban</t>
   </si>
   <si>
@@ -215,6 +233,15 @@
     <t xml:space="preserve">wykładowca, Ruch Obrony Granic</t>
   </si>
   <si>
+    <t xml:space="preserve">Klimczewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paweł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybernetyka, współautor „faszywa pandemia”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopczyński</t>
   </si>
   <si>
@@ -245,9 +272,6 @@
     <t xml:space="preserve">Lisicki</t>
   </si>
   <si>
-    <t xml:space="preserve">Paweł</t>
-  </si>
-  <si>
     <t xml:space="preserve">red.naczelny doRzeczy</t>
   </si>
   <si>
@@ -257,6 +281,18 @@
     <t xml:space="preserve">prokurator, adwokat</t>
   </si>
   <si>
+    <t xml:space="preserve">Majkowska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordo iuris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mec.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Majkowski</t>
   </si>
   <si>
@@ -281,6 +317,12 @@
     <t xml:space="preserve">Stanisław</t>
   </si>
   <si>
+    <t xml:space="preserve">Nowakowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radomir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perzyna</t>
   </si>
   <si>
@@ -291,6 +333,21 @@
   </si>
   <si>
     <t xml:space="preserve">Piekielnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pikuła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitoń</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">góralskie weto w czasach plandemii</t>
   </si>
   <si>
     <t xml:space="preserve">Pospieszalski</t>
@@ -640,129 +697,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,16 +776,19 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -842,611 +796,696 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1471,7 +1510,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
@@ -1479,294 +1518,294 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pomoc" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="przeszkoda" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="pomoc" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="przeszkoda" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="199">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -86,6 +86,9 @@
     <t xml:space="preserve">Marta</t>
   </si>
   <si>
+    <t xml:space="preserve">prowadził Panel KINGS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domańska</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
     <t xml:space="preserve">Foryś</t>
   </si>
   <si>
-    <t xml:space="preserve">prowadził Panel KINGS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fritz</t>
   </si>
   <si>
@@ -167,6 +167,15 @@
     <t xml:space="preserve">autor, dziennikarz</t>
   </si>
   <si>
+    <t xml:space="preserve">Gajer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirosław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o energetyce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Godek</t>
   </si>
   <si>
@@ -281,6 +290,12 @@
     <t xml:space="preserve">prokurator, adwokat</t>
   </si>
   <si>
+    <t xml:space="preserve">Majcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerzy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Majkowska</t>
   </si>
   <si>
@@ -311,6 +326,12 @@
     <t xml:space="preserve">prezes grupy mleczarskiej</t>
   </si>
   <si>
+    <t xml:space="preserve">Malecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziemowit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michalkiewicz</t>
   </si>
   <si>
@@ -323,6 +344,12 @@
     <t xml:space="preserve">Radomir</t>
   </si>
   <si>
+    <t xml:space="preserve">Pawlak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr inż.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perzyna</t>
   </si>
   <si>
@@ -416,6 +443,9 @@
     <t xml:space="preserve">Leszek</t>
   </si>
   <si>
+    <t xml:space="preserve">Szczęśniak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sztreker</t>
   </si>
   <si>
@@ -558,9 +588,6 @@
   </si>
   <si>
     <t xml:space="preserve">Owsiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerzy</t>
   </si>
   <si>
     <t xml:space="preserve">wośp</t>
@@ -677,11 +704,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,15 +724,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -791,101 +924,101 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -919,8 +1052,11 @@
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,22 +1066,19 @@
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,21 +1089,21 @@
         <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,24 +1114,24 @@
         <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,29 +1139,26 @@
         <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1040,12 +1170,14 @@
         <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1055,11 +1187,12 @@
         <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -1069,6 +1202,9 @@
         <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1077,108 +1213,105 @@
         <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,24 +1322,24 @@
         <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,34 +1347,40 @@
         <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1250,27 +1389,24 @@
         <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,13 +1414,10 @@
         <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1428,7 @@
         <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>117</v>
@@ -1306,39 +1439,41 @@
         <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,27 +1481,27 @@
         <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="3" t="s">
         <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,53 +1512,49 @@
         <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>134</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1432,60 +1563,130 @@
         <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1518,294 +1719,294 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>194</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="pomoc" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="przeszkoda" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="wahanie" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="przeszkoda" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -146,6 +147,15 @@
     <t xml:space="preserve">por. rezerwy</t>
   </si>
   <si>
+    <t xml:space="preserve">Fijor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o finansach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dziennikarz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foryś</t>
   </si>
   <si>
@@ -221,61 +231,334 @@
     <t xml:space="preserve">Jacek</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalbarczyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawęcki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wykładowca, Ruch Obrony Granic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimczewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paweł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cybernetyka, współautor „faszywa pandemia”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kopczyński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartosz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korwin-Mikke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janusz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poseł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krysiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulińska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łopatowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prokurator, adwokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majkowska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordo iuris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrzej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wspaniały lekarz Wołomina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malczewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarosław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prezes grupy mleczarskiej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziemowit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michalkiewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanisław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o medycynie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lek. med.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrzygłód</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modzelewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr hab..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niezgoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowakowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radomir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pawlak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr inż.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perzyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maciej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weterynarz, działający z rolnikami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piekielnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pikuła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitoń</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">góralskie weto w czasach plandemii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pospieszalski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zał.wRealu24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sędzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sienkiewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niezależni lekarze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr hab. n. med.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siodmok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henryk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skalik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Włodzimierz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skalski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red.naczelny nCzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suchańska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katarzyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumliński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wojciech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walczy o prawdę m.in.. o x Popiełuszko, o Jedwabne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sykulski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leszek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczęśniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szelągowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sztreker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agereContra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szymowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnawa-Gwóźdź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomaga z systemem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adwokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkadiusz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treywasz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopolityk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Krzysztof Zagroda”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbańczyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielomski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr n. praw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zajączkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Żebrowski</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jaruzelska</t>
   </si>
   <si>
     <t xml:space="preserve">Monika</t>
   </si>
   <si>
-    <t xml:space="preserve">dziennikarz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawęcki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oskar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wykładowca, Ruch Obrony Granic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klimczewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paweł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cybernetyka, współautor „faszywa pandemia”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kopczyński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartosz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korwin-Mikke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janusz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poseł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krysiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulińska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucyna</t>
+    <t xml:space="preserve">córka Jaruzelskiego</t>
   </si>
   <si>
     <t xml:space="preserve">Lisicki</t>
@@ -284,205 +567,19 @@
     <t xml:space="preserve">red.naczelny doRzeczy</t>
   </si>
   <si>
-    <t xml:space="preserve">Łopatowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prokurator, adwokat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majkowska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magdalena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordo iuris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majkowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrzej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wspaniały lekarz Wołomina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malczewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jarosław</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prezes grupy mleczarskiej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziemowit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michalkiewicz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanisław</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowakowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radomir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pawlak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prof. dr inż.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perzyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maciej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weterynarz, działający z rolnikami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piekielnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pikuła</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitoń</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">góralskie weto w czasach plandemii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pospieszalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zał.wRealu24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piotr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sędzia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siodmok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henryk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skalik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Włodzimierz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red.naczelny nCzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumliński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wojciech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walczy o prawdę m.in.. o x Popiełuszko, o Jedwabne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykulski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leszek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczęśniak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sztreker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agereContra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szymowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treywasz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopolityk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„Krzysztof Zagroda”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbańczyk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wielomski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adwokat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zajączkowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Żebrowski</t>
+    <t xml:space="preserve">wykryte manipulacje w treściach dla osiągnięcia tezy atakującej hierarchie Kościoła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopNOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagrana wypowiedź z czasów przynależności do Kukiz15 odwrotna do bieżącej działalności</t>
   </si>
   <si>
     <t xml:space="preserve">Budzisz</t>
@@ -558,9 +655,6 @@
   </si>
   <si>
     <t xml:space="preserve">Melonowska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justyna</t>
   </si>
   <si>
     <t xml:space="preserve">Milcarek</t>
@@ -835,18 +929,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,50 +1108,51 @@
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,8 +1162,11 @@
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,22 +1176,19 @@
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,21 +1199,21 @@
         <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,24 +1224,24 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,95 +1249,92 @@
         <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1342,13 @@
         <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,9 +1373,9 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1336,9 +1429,9 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1353,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,27 +1454,24 @@
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
+      <c r="E39" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,63 +1479,69 @@
         <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,123 +1549,119 @@
         <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,54 +1669,52 @@
         <v>140</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1633,60 +1723,212 @@
         <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>123</v>
+        <v>42</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>151</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1701,6 +1943,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="75.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1719,294 +2043,294 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -348,6 +348,9 @@
     <t xml:space="preserve">lek. med.</t>
   </si>
   <si>
+    <t xml:space="preserve">ostry konflikt z Wochem (zweryfikować)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mrzygłód</t>
   </si>
   <si>
@@ -546,6 +549,9 @@
     <t xml:space="preserve">dr n. praw.</t>
   </si>
   <si>
+    <t xml:space="preserve">ostry konflikt z Milewskim (zweryfikować)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zajączkowski</t>
   </si>
   <si>
@@ -621,6 +627,15 @@
     <t xml:space="preserve">Grosse</t>
   </si>
   <si>
+    <t xml:space="preserve">Grzesiowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morderca-zdrajca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gł. insp. sanitarny, plandemia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jagielska</t>
   </si>
   <si>
@@ -658,6 +673,12 @@
   </si>
   <si>
     <t xml:space="preserve">Milcarek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedzielski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min.zdrowia, plandemia</t>
   </si>
   <si>
     <t xml:space="preserve">Nowacka</t>
@@ -929,10 +950,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -941,7 +962,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1320,6 @@
       <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -1459,13 +1479,16 @@
       <c r="C39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
@@ -1476,7 +1499,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -1485,12 +1508,12 @@
         <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1504,10 +1527,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
@@ -1518,7 +1541,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
@@ -1527,26 +1550,26 @@
         <v>53</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>65</v>
@@ -1557,10 +1580,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>21</v>
@@ -1568,24 +1591,24 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>21</v>
@@ -1593,7 +1616,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>36</v>
@@ -1607,21 +1630,21 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>27</v>
@@ -1630,46 +1653,46 @@
         <v>37</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1680,22 +1703,21 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>30</v>
@@ -1706,7 +1728,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>65</v>
@@ -1715,15 +1737,15 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
@@ -1734,24 +1756,24 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -1762,7 +1784,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
@@ -1770,23 +1792,21 @@
       <c r="C62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
@@ -1795,42 +1815,40 @@
         <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>106</v>
@@ -1841,38 +1859,38 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -1886,7 +1904,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>68</v>
@@ -1895,26 +1913,29 @@
         <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>173</v>
+      <c r="E72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>58</v>
@@ -1925,10 +1946,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1955,19 +1976,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="75.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="75.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -1975,13 +1996,13 @@
       <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>178</v>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>76</v>
@@ -1990,27 +2011,27 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>185</v>
+      <c r="D3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2029,308 +2050,339 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>220</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>229</v>
+      <c r="D25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/ludzie.xlsx
+++ b/ludzie.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="242">
   <si>
     <t xml:space="preserve">Abramowicz</t>
   </si>
@@ -33,6 +33,15 @@
     <t xml:space="preserve">panelista KINGS o wolności gospodarczej</t>
   </si>
   <si>
+    <t xml:space="preserve">Bajoński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogusław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o samorządach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baliński</t>
   </si>
   <si>
@@ -90,6 +99,12 @@
     <t xml:space="preserve">prowadził Panel KINGS</t>
   </si>
   <si>
+    <t xml:space="preserve">Czepil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafał</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domańska</t>
   </si>
   <si>
@@ -105,15 +120,9 @@
     <t xml:space="preserve">Domański</t>
   </si>
   <si>
-    <t xml:space="preserve">Bogusław</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dorosiński</t>
   </si>
   <si>
-    <t xml:space="preserve">Rafał</t>
-  </si>
-  <si>
     <t xml:space="preserve">panelista KINGS o wolności słowa</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve">Ireneusz</t>
   </si>
   <si>
+    <t xml:space="preserve">Jędrzej</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jakiel</t>
   </si>
   <si>
@@ -237,6 +249,12 @@
     <t xml:space="preserve">Artur</t>
   </si>
   <si>
+    <t xml:space="preserve">Karwelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerzy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kawęcki</t>
   </si>
   <si>
@@ -294,9 +312,6 @@
     <t xml:space="preserve">Majcher</t>
   </si>
   <si>
-    <t xml:space="preserve">Jerzy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Majkowska</t>
   </si>
   <si>
@@ -339,340 +354,340 @@
     <t xml:space="preserve">Stanisław</t>
   </si>
   <si>
+    <t xml:space="preserve">Mrzygłód</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modzelewski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr hab..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niezgoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panelista KINGS o medycynie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowakowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radomir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okrasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pawlak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prof. dr inż.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perzyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maciej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weterynarz, działający z rolnikami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piekielnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pikuła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitoń</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">góralskie weto w czasach plandemii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pospieszalski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zał.wRealu24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sędzia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sienkiewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niezależni lekarze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr hab. n. med.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siodmok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henryk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skalik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Włodzimierz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skalski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red.naczelny nCzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suchańska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katarzyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumliński</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wojciech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walczy o prawdę m.in.. o x Popiełuszko, o Jedwabne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sykulski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leszek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szczęśniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szelągowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sztreker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agereContra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szymowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnawa-Gwóźdź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomaga z systemem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adwokat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkadiusz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treywasz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopolityk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Krzysztof Zagroda”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbańczyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielomski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr n. praw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wysocki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zajączkowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Żebrowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaruzelska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">córka Jaruzelskiego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisicki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red.naczelny doRzeczy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wykryte manipulacje w treściach dla osiągnięcia tezy atakującej hierarchie Kościoła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopNOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagrana wypowiedź z czasów przynależności do Kukiz15 odwrotna do bieżącej działalności</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budzisz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historyk, dziennikarz’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deklaracja 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenckiewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sławomir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrzanowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciompa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czuchnowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wyborcza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldemar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grosse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grzesiowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morderca-zdrajca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gł. insp. sanitarny, plandemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagielska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gizela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morderca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„ginekolog”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosiniak-Kamysz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Władysław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdrajca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowalski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melonowska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milcarek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Milewski</t>
   </si>
   <si>
-    <t xml:space="preserve">panelista KINGS o medycynie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lek. med.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostry konflikt z Wochem (zweryfikować)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrzygłód</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modzelewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prof. dr hab..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niezgoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowakowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radomir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pawlak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prof. dr inż.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perzyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maciej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weterynarz, działający z rolnikami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piekielnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pikuła</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitoń</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">góralskie weto w czasach plandemii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pogoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pospieszalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zał.wRealu24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piotr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sędzia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sienkiewicz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niezależni lekarze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dr hab. n. med.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siodmok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henryk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skalik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Włodzimierz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red.naczelny nCzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suchańska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katarzyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumliński</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wojciech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walczy o prawdę m.in.. o x Popiełuszko, o Jedwabne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sykulski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leszek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szczęśniak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szelągowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sztreker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agereContra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szymowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarnawa-Gwóźdź</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomaga z systemem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adwokat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkadiusz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treywasz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopolityk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„Krzysztof Zagroda”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbańczyk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wielomski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dr n. praw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostry konflikt z Milewskim (zweryfikować)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zajączkowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Żebrowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaruzelska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">córka Jaruzelskiego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisicki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red.naczelny doRzeczy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wykryte manipulacje w treściach dla osiągnięcia tezy atakującej hierarchie Kościoła</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopNOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nagrana wypowiedź z czasów przynależności do Kukiz15 odwrotna do bieżącej działalności</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budzisz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historyk, dziennikarz’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deklaracja 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenckiewicz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sławomir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historyk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrzanowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciompa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czuchnowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wyborcza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldemar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grosse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grzesiowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morderca-zdrajca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gł. insp. sanitarny, plandemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jagielska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gizela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morderca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">„ginekolog”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosiniak-Kamysz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Władysław</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zdrajca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kostro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kowalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melonowska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milcarek</t>
+    <t xml:space="preserve">był u Dudy, mówi piękne hasła a mąci, lek. med.</t>
   </si>
   <si>
     <t xml:space="preserve">Niedzielski</t>
@@ -810,7 +825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -820,10 +835,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,10 +961,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -986,32 +997,32 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1025,21 +1036,21 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1053,32 +1064,29 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1087,869 +1095,921 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>116</v>
+        <v>45</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>36</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>46</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>158</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>5</v>
+        <v>153</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>155</v>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +2031,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1985,53 +2045,53 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2050,339 +2110,354 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>211</v>
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>190</v>
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>236</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
